--- a/로스트아크/데이터테이블/Skill_Use_Parameter_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Use_Parameter_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8054B0B0-B4C8-4E8D-801C-F7F84428A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1558B7-5AF2-4DC0-8260-E433B13E9287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,14 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use_param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,54 +299,6 @@
   <si>
     <t>skill_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(skill_id, use_param)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">스킬 id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Skill_Table.xlsx의 PK)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복합 PK (skill_id, use_param)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[비고 1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 조작에 필요한 데이터 설명</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_param</t>
-  </si>
-  <si>
-    <t>use_value</t>
   </si>
   <si>
     <t>max_combo_cnt</t>
@@ -499,6 +443,69 @@
   </si>
   <si>
     <t>0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스킬 ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Skill_Table.xlsx의 PK)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">복합 PK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(스킬 ID, 조작 매개 변수)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(skill_id, param_key)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[비고 1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 스킬 타입 별 param_key</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1264,16 +1271,16 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1616,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1637,7 +1644,7 @@
     <row r="1" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C2" s="55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="56"/>
       <c r="E2" s="57"/>
@@ -1679,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
@@ -1697,13 +1704,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
@@ -1712,13 +1719,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
@@ -1727,13 +1734,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -1778,7 +1785,7 @@
     </row>
     <row r="12" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="58" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
@@ -1799,12 +1806,12 @@
         <v>0</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="54"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="52"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1821,12 +1828,12 @@
         <v>1</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="54"/>
+        <v>12</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="52"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1843,12 +1850,12 @@
         <v>2</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="52"/>
+        <v>13</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="54"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1862,16 +1869,16 @@
     </row>
     <row r="16" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C16" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1889,12 +1896,12 @@
         <v>3</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="52"/>
+        <v>14</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="54"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1908,16 +1915,16 @@
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>42</v>
       </c>
       <c r="E18" s="37" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1932,16 +1939,16 @@
     </row>
     <row r="19" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C19" s="40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1959,12 +1966,12 @@
         <v>4</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="52"/>
+        <v>15</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="54"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1978,16 +1985,16 @@
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C21" s="43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21" s="37" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -2002,16 +2009,16 @@
     </row>
     <row r="22" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -2029,12 +2036,12 @@
         <v>5</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="52"/>
+        <v>16</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="54"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2048,16 +2055,16 @@
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C24" s="43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" s="37" t="s">
         <v>6</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -2072,16 +2079,16 @@
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C25" s="43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="37" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -2096,16 +2103,16 @@
     </row>
     <row r="26" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C26" s="40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="41" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2123,53 +2130,53 @@
         <v>6</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="52"/>
+        <v>17</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C28" s="43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="37" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C29" s="43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E29" s="37" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C30" s="40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -2177,37 +2184,37 @@
         <v>7</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="54"/>
+        <v>18</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="52"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C32" s="39">
         <v>8</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="52"/>
+        <v>19</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="54"/>
     </row>
     <row r="33" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C33" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
@@ -2248,17 +2255,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2270,16 +2277,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.8984375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.8984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" style="50" customWidth="1"/>
     <col min="7" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
@@ -2288,24 +2295,24 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6">
         <v>305000</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D2" s="50">
         <v>3</v>
@@ -2313,16 +2320,16 @@
     </row>
     <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6">
         <v>305001</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -2330,13 +2337,13 @@
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6">
         <v>305151</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D5" s="50">
         <v>2</v>
@@ -2350,16 +2357,16 @@
     </row>
     <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="6">
         <v>305250</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -2368,10 +2375,10 @@
         <v>305250</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -2380,24 +2387,24 @@
         <v>305250</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6">
         <v>305251</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -2406,10 +2413,10 @@
         <v>305251</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -2418,24 +2425,24 @@
         <v>305251</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="6">
         <v>305270</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -2444,10 +2451,10 @@
         <v>305270</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -2456,10 +2463,10 @@
         <v>305270</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
